--- a/Gannt Actualizado 1.05.xlsx
+++ b/Gannt Actualizado 1.05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/2do Cuatrimestre/Taller de Proyectos II/TallerDeProyectos2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99F774-50A2-FC4B-AB71-19B05A24EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{9D99F774-50A2-FC4B-AB71-19B05A24EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04EF1F76-8096-4B47-8483-35941FF38314}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart Template" sheetId="1" r:id="rId1"/>
@@ -1064,15 +1064,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,15 +1124,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,33 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1501,8 @@
   </sheetPr>
   <dimension ref="B1:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScaleNormal="81" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScale="170" zoomScaleNormal="81" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1572,10 +1572,10 @@
       </c>
     </row>
     <row r="2" spans="2:24" ht="64" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="87"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1641,10 +1641,10 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="48"/>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -1668,10 +1668,10 @@
       <c r="X3" s="51"/>
     </row>
     <row r="4" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="47"/>
@@ -1695,7 +1695,7 @@
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="70" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1732,7 +1732,7 @@
       <c r="X5" s="33"/>
     </row>
     <row r="6" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B6" s="89"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="X6" s="35"/>
     </row>
     <row r="7" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B7" s="90"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1983,7 +1983,7 @@
       <c r="X12" s="35"/>
     </row>
     <row r="13" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" s="72"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="X14" s="35"/>
     </row>
     <row r="15" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2094,7 +2094,7 @@
       <c r="X15" s="35"/>
     </row>
     <row r="16" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B16" s="92"/>
+      <c r="B16" s="77"/>
       <c r="C16" s="12" t="s">
         <v>75</v>
       </c>
@@ -2129,10 +2129,10 @@
       <c r="X16" s="35"/>
     </row>
     <row r="17" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="34">
         <v>45005</v>
       </c>
@@ -2164,10 +2164,10 @@
       <c r="X17" s="35"/>
     </row>
     <row r="18" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="58">
         <v>45033</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
@@ -2208,7 +2208,7 @@
         <v>45026</v>
       </c>
       <c r="E19" s="38">
-        <v>45047</v>
+        <v>45054</v>
       </c>
       <c r="F19" s="45" t="s">
         <v>69</v>
@@ -2235,10 +2235,10 @@
       <c r="X19" s="40"/>
     </row>
     <row r="20" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="47"/>
@@ -2262,7 +2262,7 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="70" t="s">
         <v>56</v>
       </c>
       <c r="C21" s="41" t="s">
@@ -2299,7 +2299,7 @@
       <c r="X21" s="33"/>
     </row>
     <row r="22" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B22" s="72"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="X24" s="35"/>
     </row>
     <row r="25" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B25" s="72"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="X27" s="35"/>
     </row>
     <row r="28" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B28" s="72"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -2601,7 +2601,7 @@
         <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -2629,16 +2629,16 @@
         <v>37</v>
       </c>
       <c r="D31" s="36">
-        <v>45019</v>
+        <v>45047</v>
       </c>
       <c r="E31" s="38">
-        <v>45040</v>
+        <v>45062</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>70</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
@@ -2659,10 +2659,10 @@
       <c r="X31" s="40"/>
     </row>
     <row r="32" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="87"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
       <c r="F32" s="47"/>
@@ -2686,7 +2686,7 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="70" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="41" t="s">
@@ -2758,7 +2758,7 @@
       <c r="X34" s="35"/>
     </row>
     <row r="35" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B35" s="72"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
@@ -2865,7 +2865,7 @@
       <c r="X37" s="35"/>
     </row>
     <row r="38" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B38" s="72"/>
+      <c r="B38" s="75"/>
       <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="X40" s="35"/>
     </row>
     <row r="41" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="67"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="17" t="s">
         <v>49</v>
       </c>
@@ -3007,10 +3007,10 @@
       <c r="X41" s="40"/>
     </row>
     <row r="42" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="46"/>
       <c r="E42" s="46"/>
       <c r="F42" s="47"/>
@@ -3034,7 +3034,7 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="70" t="s">
         <v>58</v>
       </c>
       <c r="C43" s="53" t="s">
@@ -3044,13 +3044,13 @@
         <v>44970</v>
       </c>
       <c r="E43" s="43">
-        <v>45083</v>
+        <v>45054</v>
       </c>
       <c r="F43" s="43" t="s">
         <v>71</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -3071,7 +3071,7 @@
       <c r="X43" s="33"/>
     </row>
     <row r="44" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B44" s="72"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="20" t="s">
         <v>52</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>44970</v>
       </c>
       <c r="E44" s="2">
-        <v>45083</v>
+        <v>45054</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>71</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3106,10 +3106,10 @@
       <c r="X44" s="35"/>
     </row>
     <row r="45" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="71"/>
+      <c r="C45" s="83"/>
       <c r="D45" s="34">
         <v>44970</v>
       </c>
@@ -3141,10 +3141,10 @@
       <c r="X45" s="35"/>
     </row>
     <row r="46" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="80" t="s">
+      <c r="B46" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="81"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="36">
         <v>44970</v>
       </c>
@@ -3176,10 +3176,10 @@
       <c r="X46" s="40"/>
     </row>
     <row r="47" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="82" t="s">
+      <c r="B47" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="83"/>
+      <c r="C47" s="92"/>
       <c r="D47" s="46"/>
       <c r="E47" s="46"/>
       <c r="F47" s="47"/>
@@ -3203,7 +3203,7 @@
       <c r="X47" s="1"/>
     </row>
     <row r="48" spans="2:24" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="70" t="s">
         <v>59</v>
       </c>
       <c r="C48" s="41" t="s">
@@ -3240,7 +3240,7 @@
       <c r="X48" s="33"/>
     </row>
     <row r="49" spans="2:24" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="67"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="17" t="s">
         <v>36</v>
       </c>
@@ -3276,12 +3276,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B3:C3"/>
@@ -3298,6 +3292,12 @@
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B15:B16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D3:X3 H4:X17 H18:P18 S18:X18 H19:X36 H38:X43 H45:X49">
